--- a/ATW/PracticeAssm7/src/main/resources/Assm6_Data.xlsx
+++ b/ATW/PracticeAssm7/src/main/resources/Assm6_Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java_Assignment\Java_Assignment\Java_Automation\ATW\PracticeAssm7\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E69988F-75EA-48BF-8EBC-BD45D22A2B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE5EECE-81C2-4E5C-82A9-206CA0978792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5316" yWindow="312" windowWidth="17436" windowHeight="11136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5316" yWindow="312" windowWidth="17436" windowHeight="11136" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC_VerifyProductBrand" sheetId="1" r:id="rId1"/>
+    <sheet name="TC_VerifyProductCategory" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>No</t>
   </si>
@@ -49,6 +50,9 @@
   </si>
   <si>
     <t>123</t>
+  </si>
+  <si>
+    <t>TC2</t>
   </si>
 </sst>
 </file>
@@ -84,9 +88,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -370,7 +373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -398,13 +401,60 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFB33AC-DB73-4B6C-B927-30C851F629E7}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="44.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
